--- a/T20-MOTALITY.xlsx
+++ b/T20-MOTALITY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sangfor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2416A07-3F4A-4F7B-9D17-1DCDD266929F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F732A0E6-8345-49A8-A120-1811B9184D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A05E2D7E-DBB7-4D97-9FC9-DD5B86BE389B}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -522,13 +522,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -548,16 +548,16 @@
         <v>9.9211270400317397E-4</v>
       </c>
       <c r="C3">
-        <f xml:space="preserve"> EXP(-B3)</f>
-        <v>0.99900837927709185</v>
+        <f>B3</f>
+        <v>9.9211270400317397E-4</v>
       </c>
       <c r="D3">
-        <f>C3</f>
-        <v>0.99900837927709185</v>
+        <f>E3</f>
+        <v>0.99900788729599688</v>
       </c>
       <c r="E3">
         <f>1-C3</f>
-        <v>9.9162072290814862E-4</v>
+        <v>0.99900788729599688</v>
       </c>
       <c r="F3" s="4">
         <v>2001</v>
@@ -578,16 +578,16 @@
         <v>7.0184233613234705E-4</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:D19" si="0" xml:space="preserve"> EXP(-B4)</f>
-        <v>0.99929840389759095</v>
+        <f t="shared" ref="C4:C51" si="0">B4</f>
+        <v>7.0184233613234705E-4</v>
       </c>
       <c r="D4">
-        <f>D3*C4</f>
-        <v>0.99830747889191707</v>
+        <f>E4*D3</f>
+        <v>0.99830674126656238</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E51" si="1">1-C4</f>
-        <v>7.0159610240905224E-4</v>
+        <v>0.99929815766386765</v>
       </c>
       <c r="F4" s="4">
         <v>2002</v>
@@ -609,15 +609,15 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.99902545584462121</v>
+        <v>9.7501933227986403E-4</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D51" si="3">D4*C5</f>
-        <v>0.99733458417309206</v>
+        <f t="shared" ref="D5:D51" si="3">E5*D4</f>
+        <v>0.99733337289428214</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>9.7454415537878702E-4</v>
+        <v>0.99902498066772016</v>
       </c>
       <c r="F5" s="4">
         <v>2003</v>
@@ -639,15 +639,15 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.99909948194588238</v>
+        <v>9.0092376408486404E-4</v>
       </c>
       <c r="D6">
         <f t="shared" si="3"/>
-        <v>0.99643646637404826</v>
+        <v>0.99643485155792677</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>9.005180541176161E-4</v>
+        <v>0.9990990762359151</v>
       </c>
       <c r="F6" s="4">
         <v>2004</v>
@@ -669,15 +669,15 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.99911403947813093</v>
+        <v>8.8635321685089899E-4</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
-        <v>0.99555366300229009</v>
+        <v>0.99555165832186598</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>8.8596052186906693E-4</v>
+        <v>0.99911364678314907</v>
       </c>
       <c r="F7" s="4">
         <v>2005</v>
@@ -699,15 +699,15 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.99908124990515101</v>
+        <v>9.1917240440181401E-4</v>
       </c>
       <c r="D8">
         <f t="shared" si="3"/>
-        <v>0.99463899797997946</v>
+        <v>0.99463657471038003</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>9.1875009484898573E-4</v>
+        <v>0.99908082759559813</v>
       </c>
       <c r="F8" s="4">
         <v>2006</v>
@@ -729,15 +729,15 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.99918684599608631</v>
+        <v>8.1348479296445501E-4</v>
       </c>
       <c r="D9">
         <f t="shared" si="3"/>
-        <v>0.99383020329632332</v>
+        <v>0.99382745298232689</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>8.1315400391368531E-4</v>
+        <v>0.9991865152070355</v>
       </c>
       <c r="F9" s="4">
         <v>2007</v>
@@ -759,15 +759,15 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.99913021914300515</v>
+        <v>8.7015933584282904E-4</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
-        <v>0.99296578881039288</v>
+        <v>0.99296266474589745</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>8.6978085699485064E-4</v>
+        <v>0.99912984066415722</v>
       </c>
       <c r="F10" s="4">
         <v>2008</v>
@@ -789,15 +789,15 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0.99896558867238128</v>
+        <v>1.0349467002449301E-3</v>
       </c>
       <c r="D11">
         <f t="shared" si="3"/>
-        <v>0.9919386537505096</v>
+        <v>0.9919350013125523</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>1.0344113276187228E-3</v>
+        <v>0.99896505329975505</v>
       </c>
       <c r="F11" s="4">
         <v>2009</v>
@@ -819,15 +819,15 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0.99915297179473639</v>
+        <v>8.4738713635134797E-4</v>
       </c>
       <c r="D12">
         <f t="shared" si="3"/>
-        <v>0.99109845373289174</v>
+        <v>0.99109444835234339</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>8.4702820526361133E-4</v>
+        <v>0.99915261286364865</v>
       </c>
       <c r="F12" s="4">
         <v>2010</v>
@@ -849,15 +849,15 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.99919997921374237</v>
+        <v>8.00340973669255E-4</v>
       </c>
       <c r="D13">
         <f t="shared" si="3"/>
-        <v>0.99030555436867762</v>
+        <v>0.99030123485655097</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>8.0002078625762696E-4</v>
+        <v>0.99919965902633079</v>
       </c>
       <c r="F13" s="4">
         <v>2011</v>
@@ -879,15 +879,15 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0.99921714968184272</v>
+        <v>7.8315690548601399E-4</v>
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
-        <v>0.98953029335036713</v>
+        <v>0.98952567360596178</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>7.828503181572799E-4</v>
+        <v>0.99921684309451397</v>
       </c>
       <c r="F14" s="4">
         <v>2012</v>
@@ -909,15 +909,15 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0.99901386831262429</v>
+        <v>9.86618235121193E-4</v>
       </c>
       <c r="D15">
         <f t="shared" si="3"/>
-        <v>0.9885544861724761</v>
+        <v>0.98854938953226157</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>9.8613168737571311E-4</v>
+        <v>0.99901338176487886</v>
       </c>
       <c r="F15" s="4">
         <v>2013</v>
@@ -939,15 +939,15 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.99899927483885675</v>
+        <v>1.0012262208772499E-3</v>
       </c>
       <c r="D16">
         <f t="shared" si="3"/>
-        <v>0.98756521482500226</v>
+        <v>0.98755962796282959</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>1.0007251611432455E-3</v>
+        <v>0.99899877377912272</v>
       </c>
       <c r="F16" s="4">
         <v>2014</v>
@@ -969,15 +969,15 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.99899282174618576</v>
+        <v>1.0076857986524299E-3</v>
       </c>
       <c r="D17">
         <f t="shared" si="3"/>
-        <v>0.98657056061640713</v>
+        <v>0.98656447815040904</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>1.0071782538142449E-3</v>
+        <v>0.9989923142013476</v>
       </c>
       <c r="F17" s="4">
         <v>2015</v>
@@ -999,15 +999,15 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0.99903868555078468</v>
+        <v>9.6177680828912705E-4</v>
       </c>
       <c r="D18">
         <f t="shared" si="3"/>
-        <v>0.98562215608131609</v>
+        <v>0.98561562331544206</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>9.613144492153225E-4</v>
+        <v>0.99903822319171087</v>
       </c>
       <c r="F18" s="4">
         <v>2016</v>
@@ -1029,15 +1029,15 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0.99893373915397277</v>
+        <v>1.06682970652824E-3</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
-        <v>0.9845712257673096</v>
+        <v>0.98456413928927078</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>1.0662608460272338E-3</v>
+        <v>0.99893317029347173</v>
       </c>
       <c r="F19" s="4">
         <v>2017</v>
@@ -1058,16 +1058,16 @@
         <v>9.8312740799787407E-4</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:D35" si="4" xml:space="preserve"> EXP(-B20)</f>
-        <v>0.99901735570341932</v>
+        <f t="shared" si="0"/>
+        <v>9.8312740799787407E-4</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
-        <v>0.98360374246773186</v>
+        <v>0.98359618729900367</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>9.8264429658068142E-4</v>
+        <v>0.99901687259200211</v>
       </c>
       <c r="F20" s="4">
         <v>2018</v>
@@ -1088,16 +1088,16 @@
         <v>1.1442064731798499E-3</v>
       </c>
       <c r="C21">
-        <f t="shared" si="4"/>
-        <v>0.99885644788145067</v>
+        <f t="shared" si="0"/>
+        <v>1.1442064731798499E-3</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
-        <v>0.98247894032421978</v>
+        <v>0.98247075017450114</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>1.1435521185493291E-3</v>
+        <v>0.99885579352682019</v>
       </c>
       <c r="F21" s="4">
         <v>2019</v>
@@ -1118,16 +1118,16 @@
         <v>1.1652695961293701E-3</v>
       </c>
       <c r="C22">
-        <f t="shared" si="4"/>
-        <v>0.99883540906685242</v>
+        <f t="shared" si="0"/>
+        <v>1.1652695961293701E-3</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
-        <v>0.98133475425830974</v>
+        <v>0.98132590688023635</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>1.1645909331475801E-3</v>
+        <v>0.99883473040387061</v>
       </c>
       <c r="F22" s="4">
         <v>2020</v>
@@ -1148,16 +1148,16 @@
         <v>1.1177443198499999E-3</v>
       </c>
       <c r="C23">
-        <f t="shared" si="4"/>
-        <v>0.99888288012365456</v>
+        <f t="shared" si="0"/>
+        <v>1.1177443198499999E-3</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
-        <v>0.9802384856989792</v>
+        <v>0.98022903542189932</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>1.1171198763454404E-3</v>
+        <v>0.99888225568014999</v>
       </c>
       <c r="F23" s="4">
         <v>2021</v>
@@ -1178,16 +1178,16 @@
         <v>1.14792952108578E-3</v>
       </c>
       <c r="C24">
-        <f t="shared" si="4"/>
-        <v>0.99885272909796674</v>
+        <f t="shared" si="0"/>
+        <v>1.14792952108578E-3</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
-        <v>0.9791138866072836</v>
+        <v>0.97910380157471311</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>1.1472709020332594E-3</v>
+        <v>0.99885207047891422</v>
       </c>
       <c r="F24" s="4">
         <v>2022</v>
@@ -1208,16 +1208,16 @@
         <v>1.33020493246651E-3</v>
       </c>
       <c r="C25">
-        <f t="shared" si="4"/>
-        <v>0.99867067939795762</v>
+        <f t="shared" si="0"/>
+        <v>1.33020493246651E-3</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
-        <v>0.97781233034607073</v>
+        <v>0.97780139286846168</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>1.3293206020423831E-3</v>
+        <v>0.99866979506753351</v>
       </c>
       <c r="F25" s="4">
         <v>2023</v>
@@ -1238,16 +1238,16 @@
         <v>1.3487383103612E-3</v>
       </c>
       <c r="C26">
-        <f t="shared" si="4"/>
-        <v>0.99865217082837765</v>
+        <f t="shared" si="0"/>
+        <v>1.3487383103612E-3</v>
       </c>
       <c r="D26">
         <f t="shared" si="3"/>
-        <v>0.97649440636285822</v>
+        <v>0.97648259466997545</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>1.3478291716223501E-3</v>
+        <v>0.9986512616896388</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1258,16 +1258,16 @@
         <v>1.3921165039948601E-3</v>
       </c>
       <c r="C27">
-        <f t="shared" si="4"/>
-        <v>0.99860885204069105</v>
+        <f t="shared" si="0"/>
+        <v>1.3921165039948601E-3</v>
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
-        <v>0.97513595816216991</v>
+        <v>0.97512321713407168</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>1.3911479593089471E-3</v>
+        <v>0.99860788349600516</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1278,16 +1278,16 @@
         <v>1.4175420291590299E-3</v>
       </c>
       <c r="C28">
-        <f t="shared" si="4"/>
-        <v>0.99858346220897054</v>
+        <f t="shared" si="0"/>
+        <v>1.4175420291590299E-3</v>
       </c>
       <c r="D28">
         <f t="shared" si="3"/>
-        <v>0.9737546412260415</v>
+        <v>0.97374093899017544</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>1.4165377910294596E-3</v>
+        <v>0.998582457970841</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1298,16 +1298,16 @@
         <v>1.59842845326716E-3</v>
       </c>
       <c r="C29">
-        <f t="shared" si="4"/>
-        <v>0.99840284835310777</v>
+        <f t="shared" si="0"/>
+        <v>1.59842845326716E-3</v>
       </c>
       <c r="D29">
         <f t="shared" si="3"/>
-        <v>0.97219940739713839</v>
+        <v>0.97218448376718247</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>1.5971516468922253E-3</v>
+        <v>0.99840157154673281</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1318,16 +1318,16 @@
         <v>1.7220526868026601E-3</v>
       </c>
       <c r="C30">
-        <f t="shared" si="4"/>
-        <v>0.99827942919517709</v>
+        <f t="shared" si="0"/>
+        <v>1.7220526868026601E-3</v>
       </c>
       <c r="D30">
         <f t="shared" si="3"/>
-        <v>0.97052666948030475</v>
+        <v>0.97051033086484328</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>1.7205708048229074E-3</v>
+        <v>0.9982779473131973</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1338,16 +1338,16 @@
         <v>1.7439602268313501E-3</v>
       </c>
       <c r="C31">
-        <f t="shared" si="4"/>
-        <v>0.99825755958817763</v>
+        <f t="shared" si="0"/>
+        <v>1.7439602268313501E-3</v>
       </c>
       <c r="D31">
         <f t="shared" si="3"/>
-        <v>0.96883558459065089</v>
+        <v>0.9688177994480861</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>1.7424404118223658E-3</v>
+        <v>0.99825603977316868</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1358,16 +1358,16 @@
         <v>1.8476656253122599E-3</v>
       </c>
       <c r="C32">
-        <f t="shared" si="4"/>
-        <v>0.99815404025802346</v>
+        <f t="shared" si="0"/>
+        <v>1.8476656253122599E-3</v>
       </c>
       <c r="D32">
         <f t="shared" si="3"/>
-        <v>0.96704715310490219</v>
+        <v>0.96702774810285519</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>1.8459597419765439E-3</v>
+        <v>0.99815233437468776</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1378,16 +1378,16 @@
         <v>1.86372021375729E-3</v>
       </c>
       <c r="C33">
-        <f t="shared" si="4"/>
-        <v>0.99813801543433867</v>
+        <f t="shared" si="0"/>
+        <v>1.86372021375729E-3</v>
       </c>
       <c r="D33">
         <f t="shared" si="3"/>
-        <v>0.96524652623155416</v>
+        <v>0.96522547894145172</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>1.8619845656613343E-3</v>
+        <v>0.99813627978624275</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1398,16 +1398,16 @@
         <v>1.6912394944689499E-3</v>
       </c>
       <c r="C34">
-        <f t="shared" si="4"/>
-        <v>0.99831018984514608</v>
+        <f t="shared" si="0"/>
+        <v>1.6912394944689499E-3</v>
       </c>
       <c r="D34">
         <f t="shared" si="3"/>
-        <v>0.96361544284959055</v>
+        <v>0.96359305149039831</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>1.6898101548539213E-3</v>
+        <v>0.99830876050553108</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1418,16 +1418,16 @@
         <v>1.6274462430538701E-3</v>
       </c>
       <c r="C35">
-        <f t="shared" si="4"/>
-        <v>0.99837387732947136</v>
+        <f t="shared" si="0"/>
+        <v>1.6274462430538701E-3</v>
       </c>
       <c r="D35">
         <f t="shared" si="3"/>
-        <v>0.9620484859323013</v>
+        <v>0.96202485559891748</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>1.6261226705286402E-3</v>
+        <v>0.99837255375694611</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1438,16 +1438,16 @@
         <v>1.5225412030411801E-3</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:D51" si="5" xml:space="preserve"> EXP(-B36)</f>
-        <v>0.99847861727479825</v>
+        <f t="shared" si="0"/>
+        <v>1.5225412030411801E-3</v>
       </c>
       <c r="D36">
         <f t="shared" si="3"/>
-        <v>0.96058484198499738</v>
+        <v>0.96056013311791844</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>1.5213827252017476E-3</v>
+        <v>0.99847745879695882</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1458,16 +1458,16 @@
         <v>1.45660855262513E-3</v>
       </c>
       <c r="C37">
-        <f t="shared" si="5"/>
-        <v>0.99854445178671702</v>
+        <f t="shared" si="0"/>
+        <v>1.45660855262513E-3</v>
       </c>
       <c r="D37">
         <f t="shared" si="3"/>
-        <v>0.95918666443453937</v>
+        <v>0.9591609730127082</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
-        <v>1.4555482132829756E-3</v>
+        <v>0.99854339144737492</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1478,16 +1478,16 @@
         <v>1.40526500692764E-3</v>
       </c>
       <c r="C38">
-        <f t="shared" si="5"/>
-        <v>0.9985957219155922</v>
+        <f t="shared" si="0"/>
+        <v>1.40526500692764E-3</v>
       </c>
       <c r="D38">
         <f t="shared" si="3"/>
-        <v>0.95783969962281779</v>
+        <v>0.95781309766132283</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
-        <v>1.4042780844077951E-3</v>
+        <v>0.99859473499307239</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1498,16 +1498,16 @@
         <v>1.2772356092493301E-3</v>
       </c>
       <c r="C39">
-        <f t="shared" si="5"/>
-        <v>0.99872357970899661</v>
+        <f t="shared" si="0"/>
+        <v>1.2772356092493301E-3</v>
       </c>
       <c r="D39">
         <f t="shared" si="3"/>
-        <v>0.9566170935946906</v>
+        <v>0.95658974466598445</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
-        <v>1.2764202910033884E-3</v>
+        <v>0.99872276439075069</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1518,16 +1518,16 @@
         <v>1.2291543418128301E-3</v>
       </c>
       <c r="C40">
-        <f t="shared" si="5"/>
-        <v>0.99877160075897498</v>
+        <f t="shared" si="0"/>
+        <v>1.2291543418128301E-3</v>
       </c>
       <c r="D40">
         <f t="shared" si="3"/>
-        <v>0.95544198588296736</v>
+        <v>0.95541394822799464</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
-        <v>1.2283992410250244E-3</v>
+        <v>0.99877084565818719</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1538,16 +1538,16 @@
         <v>1.1419265990490601E-3</v>
       </c>
       <c r="C41">
-        <f t="shared" si="5"/>
-        <v>0.99885872515102259</v>
+        <f t="shared" si="0"/>
+        <v>1.1419265990490601E-3</v>
       </c>
       <c r="D41">
         <f t="shared" si="3"/>
-        <v>0.95435156397482213</v>
+        <v>0.95432293562741055</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
-        <v>1.1412748489774138E-3</v>
+        <v>0.9988580734009509</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1558,16 +1558,16 @@
         <v>1.0691512475115401E-3</v>
       </c>
       <c r="C42">
-        <f t="shared" si="5"/>
-        <v>0.99893142009104952</v>
+        <f t="shared" si="0"/>
+        <v>1.0691512475115401E-3</v>
       </c>
       <c r="D42">
         <f t="shared" si="3"/>
-        <v>0.95333176306748313</v>
+        <v>0.95330262007025568</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
-        <v>1.0685799089504844E-3</v>
+        <v>0.9989308487524885</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1578,16 +1578,16 @@
         <v>9.5294019639914499E-4</v>
       </c>
       <c r="C43">
-        <f t="shared" si="5"/>
-        <v>0.99904751370691747</v>
+        <f t="shared" si="0"/>
+        <v>9.5294019639914499E-4</v>
       </c>
       <c r="D43">
         <f t="shared" si="3"/>
-        <v>0.95242372763040117</v>
+        <v>0.9523941796842581</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
-        <v>9.5248629308253285E-4</v>
+        <v>0.99904705980360087</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1598,16 +1598,16 @@
         <v>8.10581250051044E-4</v>
       </c>
       <c r="C44">
-        <f t="shared" si="5"/>
-        <v>0.99918974718218412</v>
+        <f t="shared" si="0"/>
+        <v>8.10581250051044E-4</v>
       </c>
       <c r="D44">
         <f t="shared" si="3"/>
-        <v>0.95165202362133394</v>
+        <v>0.95162218681954824</v>
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
-        <v>8.1025281781588188E-4</v>
+        <v>0.99918941874994893</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1618,16 +1618,16 @@
         <v>7.7953675002923203E-4</v>
       </c>
       <c r="C45">
-        <f t="shared" si="5"/>
-        <v>0.99922076700980733</v>
+        <f t="shared" si="0"/>
+        <v>7.7953675002923203E-4</v>
       </c>
       <c r="D45">
         <f t="shared" si="3"/>
-        <v>0.95091046496934462</v>
+        <v>0.95088036235277917</v>
       </c>
       <c r="E45">
         <f t="shared" si="1"/>
-        <v>7.7923299019266867E-4</v>
+        <v>0.99922046324997071</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1638,16 +1638,16 @@
         <v>5.3788370583325595E-4</v>
       </c>
       <c r="C46">
-        <f t="shared" si="5"/>
-        <v>0.9994622609276741</v>
+        <f t="shared" si="0"/>
+        <v>5.3788370583325595E-4</v>
       </c>
       <c r="D46">
         <f t="shared" si="3"/>
-        <v>0.95039912325804699</v>
+        <v>0.95036889929967272</v>
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
-        <v>5.3773907232590457E-4</v>
+        <v>0.9994621162941667</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1658,16 +1658,16 @@
         <v>4.8631489199670502E-4</v>
       </c>
       <c r="C47">
-        <f t="shared" si="5"/>
-        <v>0.99951380333992368</v>
+        <f t="shared" si="0"/>
+        <v>4.8631489199670502E-4</v>
       </c>
       <c r="D47">
         <f t="shared" si="3"/>
-        <v>0.94993704237857945</v>
+        <v>0.94990672075105276</v>
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
-        <v>4.8619666007632123E-4</v>
+        <v>0.99951368510800331</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1678,16 +1678,16 @@
         <v>3.5941405121961802E-4</v>
       </c>
       <c r="C48">
-        <f t="shared" si="5"/>
-        <v>0.99964065053027307</v>
+        <f t="shared" si="0"/>
+        <v>3.5941405121961802E-4</v>
       </c>
       <c r="D48">
         <f t="shared" si="3"/>
-        <v>0.94959568300612673</v>
+        <v>0.9495653109282669</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
-        <v>3.5934946972693282E-4</v>
+        <v>0.99964058594878036</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1698,16 +1698,16 @@
         <v>2.2318262596260501E-4</v>
       </c>
       <c r="C49">
-        <f t="shared" si="5"/>
-        <v>0.99977684227742691</v>
+        <f t="shared" si="0"/>
+        <v>2.2318262596260501E-4</v>
       </c>
       <c r="D49">
         <f t="shared" si="3"/>
-        <v>0.94938377339614188</v>
+        <v>0.94935338444865092</v>
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
-        <v>2.231577225730863E-4</v>
+        <v>0.99977681737403734</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1718,16 +1718,16 @@
         <v>1.77876737698777E-4</v>
       </c>
       <c r="C50">
-        <f t="shared" si="5"/>
-        <v>0.99982213908143014</v>
+        <f t="shared" si="0"/>
+        <v>1.77876737698777E-4</v>
       </c>
       <c r="D50">
         <f t="shared" si="3"/>
-        <v>0.94921491512613032</v>
+        <v>0.94918451656570191</v>
       </c>
       <c r="E50">
         <f t="shared" si="1"/>
-        <v>1.7786091856986097E-4</v>
+        <v>0.99982212326230124</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1738,16 +1738,16 @@
         <v>7.1394973793844905E-5</v>
       </c>
       <c r="C51">
-        <f t="shared" si="5"/>
-        <v>0.99992860757476665</v>
+        <f t="shared" si="0"/>
+        <v>7.1394973793844905E-5</v>
       </c>
       <c r="D51">
         <f t="shared" si="3"/>
-        <v>0.94914714837127179</v>
+        <v>0.94911674956201619</v>
       </c>
       <c r="E51">
         <f t="shared" si="1"/>
-        <v>7.1392425233351986E-5</v>
+        <v>0.99992860502620617</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
